--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_EQ组_新.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_EQ组_新.xlsx
@@ -941,6 +941,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,24 +984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1003,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1014,11 +1014,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1364,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,38 +1467,38 @@
       <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="81">
         <v>42753</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="90">
+      <c r="J2" s="81">
         <v>42753</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="83" t="s">
         <v>78</v>
       </c>
       <c r="N2" s="58" t="s">
@@ -1523,38 +1521,38 @@
       <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="81">
         <v>42751</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="90">
+      <c r="J3" s="81">
         <v>42751</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="80" t="s">
         <v>80</v>
       </c>
       <c r="N3" s="58" t="s">
@@ -5827,19 +5825,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5877,8 +5875,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5890,8 +5888,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5903,8 +5901,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5916,8 +5914,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5929,8 +5927,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5942,8 +5940,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5955,8 +5953,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5968,8 +5966,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6030,36 +6028,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6344,36 +6342,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6658,36 +6656,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6974,36 +6972,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
